--- a/media/reports/izolasyon_trifaz.xlsx
+++ b/media/reports/izolasyon_trifaz.xlsx
@@ -1294,7 +1294,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44317.87766377256</v>
+        <v>44318.50582054909</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1390,7 +1390,7 @@
       <c r="K4" s="77" t="n"/>
       <c r="L4" s="78" t="inlineStr">
         <is>
-          <t>240.0 x 118.0 x 200.0</t>
+          <t>242.0 x 118.0 x 202.0</t>
         </is>
       </c>
       <c r="O4" s="77" t="n"/>
@@ -2167,17 +2167,17 @@
     <row r="103">
       <c r="B103" s="28" t="inlineStr">
         <is>
-          <t>120.0 mm</t>
+          <t>200.0 mm</t>
         </is>
       </c>
       <c r="C103" s="29" t="inlineStr">
         <is>
-          <t>101.0 mm</t>
+          <t>128.0 mm</t>
         </is>
       </c>
       <c r="D103" s="29" t="inlineStr">
         <is>
-          <t>118.0 mm</t>
+          <t>218.0 mm</t>
         </is>
       </c>
       <c r="E103" s="29" t="inlineStr"/>
@@ -2231,7 +2231,7 @@
     <row r="106">
       <c r="B106" s="28" t="inlineStr">
         <is>
-          <t>240.0 mm</t>
+          <t>242.0 mm</t>
         </is>
       </c>
       <c r="C106" s="29" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="D106" s="29" t="inlineStr">
         <is>
-          <t>200.0 mm</t>
+          <t>202.0 mm</t>
         </is>
       </c>
       <c r="E106" s="29" t="inlineStr">
         <is>
-          <t>200.0 mm</t>
+          <t>202.0 mm</t>
         </is>
       </c>
       <c r="F106" s="29" t="inlineStr">

--- a/media/reports/izolasyon_trifaz.xlsx
+++ b/media/reports/izolasyon_trifaz.xlsx
@@ -849,7 +849,7 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>13</col>
       <colOff>0</colOff>
       <row>10</row>
       <rowOff>0</rowOff>
@@ -874,7 +874,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>13</col>
       <colOff>0</colOff>
       <row>25</row>
       <rowOff>0</rowOff>
@@ -899,12 +899,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>107</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8839200" cy="5381625"/>
+    <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -912,6 +912,56 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="323850" cy="2952750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8839200" cy="5381625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -932,11 +982,36 @@
     <ext cx="752475" cy="809625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="752475" cy="809625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1242,13 +1317,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13.33203125" customWidth="1" min="1" max="1"/>
     <col width="7.6640625" customWidth="1" style="12" min="2" max="2"/>
@@ -1275,7 +1350,7 @@
       </c>
       <c r="B1" s="44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oto Trafosu Trifaz Hesap Ozeti</t>
+          <t xml:space="preserve"> Izolasyon Trafosu Trifaz Hesap Ozeti</t>
         </is>
       </c>
       <c r="C1" s="46" t="n"/>
@@ -1294,7 +1369,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44318.50582054909</v>
+        <v>44319.63433099508</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1327,7 +1402,7 @@
       </c>
       <c r="B3" s="71" t="inlineStr">
         <is>
-          <t>15000.0 VA</t>
+          <t>500.0 VA</t>
         </is>
       </c>
       <c r="C3" s="72" t="n"/>
@@ -1341,7 +1416,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>2.024 kg</t>
+          <t>4.173 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1353,7 +1428,7 @@
       <c r="K3" s="54" t="n"/>
       <c r="L3" s="75" t="inlineStr">
         <is>
-          <t>40.0 x 60.0 x 114.0</t>
+          <t>100.0 x 120.0 x 171.0</t>
         </is>
       </c>
       <c r="M3" s="53" t="n"/>
@@ -1380,7 +1455,11 @@
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="73" t="inlineStr"/>
+      <c r="H4" s="73" t="inlineStr">
+        <is>
+          <t>1.378 kg</t>
+        </is>
+      </c>
       <c r="I4" s="51" t="n"/>
       <c r="J4" s="76" t="inlineStr">
         <is>
@@ -1390,7 +1469,7 @@
       <c r="K4" s="77" t="n"/>
       <c r="L4" s="78" t="inlineStr">
         <is>
-          <t>242.0 x 118.0 x 202.0</t>
+          <t>578.0 x 262.0 x 386.0</t>
         </is>
       </c>
       <c r="O4" s="77" t="n"/>
@@ -1429,7 +1508,7 @@
       <c r="K5" s="77" t="n"/>
       <c r="L5" s="78" t="inlineStr">
         <is>
-          <t>TRV4M / 25.0 / 18.0 - 84 Kose</t>
+          <t>AVK2.5 / 0.0 / 45.0 - 180 Kose</t>
         </is>
       </c>
       <c r="O5" s="77" t="n"/>
@@ -1454,7 +1533,11 @@
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="73" t="inlineStr"/>
+      <c r="H6" s="73" t="inlineStr">
+        <is>
+          <t>1.48 kg</t>
+        </is>
+      </c>
       <c r="I6" s="51" t="n"/>
       <c r="J6" s="76" t="inlineStr">
         <is>
@@ -1464,7 +1547,7 @@
       <c r="K6" s="77" t="n"/>
       <c r="L6" s="78" t="inlineStr">
         <is>
-          <t>14.052 kg (Hazır Sac)</t>
+          <t>121.76 kg (Kesme Sac)</t>
         </is>
       </c>
       <c r="O6" s="77" t="n"/>
@@ -1491,7 +1574,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:2.024 //  Cu:0.0kg</t>
+          <t>Al:5.551 //  Cu:1.48kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1533,11 +1616,15 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>440.0 V ( 440.3183V )</t>
+          <t>425.0 V ( 425.641V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
-      <c r="O10" s="2" t="n"/>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>45.0 V ( 42.5641V )</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="81" t="inlineStr">
@@ -1545,10 +1632,11 @@
           <t>2 NOLU KADEME:</t>
         </is>
       </c>
-      <c r="J11" s="1" t="n"/>
-      <c r="K11" s="1" t="n"/>
-      <c r="L11" s="1" t="n"/>
-      <c r="M11" s="1" t="n"/>
+      <c r="I11" s="81" t="inlineStr">
+        <is>
+          <t>2 NOLU KADEME:</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="82" t="inlineStr">
@@ -1564,8 +1652,16 @@
       <c r="C12" s="22" t="n"/>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="n"/>
-      <c r="I12" s="23" t="n"/>
-      <c r="J12" s="22" t="n"/>
+      <c r="I12" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J12" s="22" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="22" t="n"/>
       <c r="M12" s="22" t="n"/>
@@ -1577,13 +1673,19 @@
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="n"/>
-      <c r="I13" s="23" t="n"/>
-      <c r="J13" s="21" t="n"/>
+      <c r="I13" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="J13" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" s="21" t="n"/>
       <c r="L13" s="21" t="n"/>
       <c r="M13" s="21" t="n"/>
@@ -1595,14 +1697,20 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>12</v>
+        <v>12.56637061435917</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="n"/>
       <c r="G14" s="1" t="n"/>
-      <c r="I14" s="23" t="n"/>
-      <c r="J14" s="21" t="n"/>
+      <c r="I14" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>50</v>
+      </c>
       <c r="K14" s="21" t="n"/>
       <c r="L14" s="21" t="n"/>
       <c r="M14" s="21" t="n"/>
@@ -1615,14 +1723,20 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>19.2</v>
+        <v>20.10619298297468</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="n"/>
       <c r="G15" s="2" t="n"/>
-      <c r="I15" s="23" t="n"/>
-      <c r="J15" s="21" t="n"/>
+      <c r="I15" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>150</v>
+      </c>
       <c r="K15" s="21" t="n"/>
       <c r="L15" s="21" t="n"/>
       <c r="M15" s="21" t="n"/>
@@ -1635,13 +1749,19 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="n"/>
-      <c r="I16" s="23" t="n"/>
-      <c r="J16" s="21" t="n"/>
+      <c r="I16" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" s="21" t="n"/>
       <c r="L16" s="21" t="n"/>
       <c r="M16" s="21" t="n"/>
@@ -1653,13 +1773,19 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>10.73718</v>
+        <v>1.058664</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="n"/>
-      <c r="I17" s="23" t="n"/>
-      <c r="J17" s="21" t="n"/>
+      <c r="I17" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>1.134052</v>
+      </c>
       <c r="K17" s="21" t="n"/>
       <c r="L17" s="21" t="n"/>
       <c r="M17" s="21" t="n"/>
@@ -1674,8 +1800,12 @@
       <c r="D18" s="25" t="n"/>
       <c r="E18" s="25" t="n"/>
       <c r="G18" s="2" t="n"/>
-      <c r="J18" s="25" t="n"/>
-      <c r="K18" s="25" t="n"/>
+      <c r="J18" s="83" t="inlineStr"/>
+      <c r="K18" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
       <c r="L18" s="25" t="n"/>
       <c r="M18" s="25" t="n"/>
       <c r="O18" s="2" t="n"/>
@@ -1686,21 +1816,31 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B19" s="24" t="n"/>
+      <c r="B19" s="84" t="n">
+        <v>4</v>
+      </c>
       <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>415 sp</t>
-        </is>
-      </c>
-      <c r="I19" s="23" t="n"/>
+          <t>80 sp</t>
+        </is>
+      </c>
+      <c r="I19" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
       <c r="J19" s="24" t="n"/>
       <c r="K19" s="24" t="n"/>
       <c r="L19" s="24" t="n"/>
       <c r="M19" s="24" t="n"/>
-      <c r="O19" s="17" t="n"/>
+      <c r="O19" s="17" t="inlineStr">
+        <is>
+          <t>8 sp</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="82" t="inlineStr">
@@ -1708,11 +1848,17 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B20" s="26" t="n"/>
+      <c r="B20" s="84" t="n">
+        <v>0.03591962328621584</v>
+      </c>
       <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
-      <c r="I20" s="23" t="n"/>
+      <c r="I20" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
       <c r="J20" s="26" t="n"/>
       <c r="K20" s="26" t="n"/>
       <c r="L20" s="26" t="n"/>
@@ -1724,16 +1870,20 @@
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B21" s="84" t="inlineStr">
-        <is>
-          <t>4.0x3.0</t>
-        </is>
-      </c>
+      <c r="B21" s="24" t="n"/>
       <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
-      <c r="I21" s="23" t="n"/>
-      <c r="J21" s="24" t="n"/>
+      <c r="I21" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+      <c r="J21" s="84" t="inlineStr">
+        <is>
+          <t>10.0x5.0</t>
+        </is>
+      </c>
       <c r="K21" s="24" t="n"/>
       <c r="L21" s="24" t="n"/>
       <c r="M21" s="24" t="n"/>
@@ -1744,14 +1894,18 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B22" s="84" t="n">
-        <v>0.347884632</v>
-      </c>
+      <c r="B22" s="26" t="n"/>
       <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
-      <c r="I22" s="23" t="n"/>
-      <c r="J22" s="26" t="n"/>
+      <c r="I22" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+      <c r="J22" s="84" t="n">
+        <v>0.4933126199999999</v>
+      </c>
       <c r="K22" s="26" t="n"/>
       <c r="L22" s="26" t="n"/>
       <c r="M22" s="26" t="n"/>
@@ -1766,7 +1920,11 @@
       <c r="C23" s="24" t="n"/>
       <c r="D23" s="24" t="n"/>
       <c r="E23" s="24" t="n"/>
-      <c r="I23" s="23" t="n"/>
+      <c r="I23" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
       <c r="J23" s="24" t="n"/>
       <c r="K23" s="24" t="n"/>
       <c r="L23" s="24" t="n"/>
@@ -1782,7 +1940,11 @@
       <c r="C24" s="26" t="n"/>
       <c r="D24" s="26" t="n"/>
       <c r="E24" s="26" t="n"/>
-      <c r="I24" s="23" t="n"/>
+      <c r="I24" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
       <c r="J24" s="26" t="n"/>
       <c r="K24" s="26" t="n"/>
       <c r="L24" s="26" t="n"/>
@@ -1800,15 +1962,23 @@
       <c r="E25" s="24" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>400.0 V ( 400.0V )</t>
-        </is>
-      </c>
-      <c r="I25" s="23" t="n"/>
+          <t>415.0 V ( 415.0V )</t>
+        </is>
+      </c>
+      <c r="I25" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
       <c r="J25" s="24" t="n"/>
       <c r="K25" s="24" t="n"/>
       <c r="L25" s="24" t="n"/>
       <c r="M25" s="24" t="n"/>
-      <c r="O25" s="2" t="n"/>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>32.0 V ( 31.9231V )</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="81" t="inlineStr">
@@ -1816,6 +1986,11 @@
           <t>1 NOLU KADEME:</t>
         </is>
       </c>
+      <c r="I26" s="81" t="inlineStr">
+        <is>
+          <t>1 NOLU KADEME:</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="82" t="inlineStr">
@@ -1828,6 +2003,16 @@
           <t>Al</t>
         </is>
       </c>
+      <c r="I27" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="J27" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="82" t="inlineStr">
@@ -1836,7 +2021,15 @@
         </is>
       </c>
       <c r="B28" s="83" t="n">
-        <v>1.3</v>
+        <v>4</v>
+      </c>
+      <c r="I28" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="J28" s="83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" thickBot="1">
@@ -1846,7 +2039,15 @@
         </is>
       </c>
       <c r="B29" s="83" t="n">
-        <v>1.327322896141688</v>
+        <v>12.56637061435917</v>
+      </c>
+      <c r="I29" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="J29" s="83" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" thickBot="1">
@@ -1856,7 +2057,15 @@
         </is>
       </c>
       <c r="B30" s="83" t="n">
-        <v>2.1237166338267</v>
+        <v>20.10619298297468</v>
+      </c>
+      <c r="I30" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="J30" s="83" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" thickBot="1">
@@ -1866,7 +2075,15 @@
         </is>
       </c>
       <c r="B31" s="83" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I31" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="J31" s="83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -1876,7 +2093,15 @@
         </is>
       </c>
       <c r="B32" s="83" t="n">
-        <v>91.140114</v>
+        <v>39.939488</v>
+      </c>
+      <c r="I32" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="J32" s="83" t="n">
+        <v>3.402156</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1">
@@ -1886,6 +2111,12 @@
           <t>-- Teller --</t>
         </is>
       </c>
+      <c r="J33" s="83" t="inlineStr"/>
+      <c r="K33" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="82" t="inlineStr">
@@ -1894,11 +2125,21 @@
         </is>
       </c>
       <c r="B34" s="84" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="G34" s="17" t="inlineStr">
         <is>
-          <t>377 sp</t>
+          <t>78 sp</t>
+        </is>
+      </c>
+      <c r="I34" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="O34" s="17" t="inlineStr">
+        <is>
+          <t>6 sp</t>
         </is>
       </c>
     </row>
@@ -1909,7 +2150,12 @@
         </is>
       </c>
       <c r="B35" s="84" t="n">
-        <v>0.3266253721867416</v>
+        <v>1.355114902560527</v>
+      </c>
+      <c r="I35" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
@@ -1918,6 +2164,16 @@
           <t>Kare Tel :</t>
         </is>
       </c>
+      <c r="I36" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+      <c r="J36" s="84" t="inlineStr">
+        <is>
+          <t>10.0x5.0</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="82" t="inlineStr">
@@ -1925,6 +2181,14 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
+      <c r="I37" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+      <c r="J37" s="84" t="n">
+        <v>0.45929106</v>
+      </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="82" t="inlineStr">
@@ -1932,6 +2196,11 @@
           <t>Folyo :</t>
         </is>
       </c>
+      <c r="I38" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="82" t="inlineStr">
@@ -1939,9 +2208,19 @@
           <t>Folyo Agr :</t>
         </is>
       </c>
+      <c r="I39" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+      <c r="I40" s="82" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1955,313 +2234,272 @@
     <row r="46"/>
     <row r="47"/>
     <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94">
-      <c r="B94" s="34" t="inlineStr">
+    <row r="49">
+      <c r="B49" s="34" t="inlineStr">
         <is>
           <t>IZOLASYON DEGERLERI</t>
         </is>
       </c>
-      <c r="C94" s="35" t="n"/>
-      <c r="D94" s="35" t="n"/>
-      <c r="E94" s="35" t="n"/>
-      <c r="F94" s="35" t="n"/>
-      <c r="G94" s="15" t="n"/>
-    </row>
-    <row r="95">
-      <c r="B95" s="85" t="inlineStr">
+      <c r="C49" s="35" t="n"/>
+      <c r="D49" s="35" t="n"/>
+      <c r="E49" s="35" t="n"/>
+      <c r="F49" s="35" t="n"/>
+      <c r="G49" s="15" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="85" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
         </is>
       </c>
-      <c r="C95" s="46" t="n"/>
-      <c r="D95" s="46" t="n"/>
-      <c r="E95" s="48" t="n"/>
-      <c r="F95" s="7" t="inlineStr">
+      <c r="C50" s="46" t="n"/>
+      <c r="D50" s="46" t="n"/>
+      <c r="E50" s="48" t="n"/>
+      <c r="F50" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G95" s="8" t="inlineStr">
+      <c r="G50" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekran </t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="B96" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C96" s="46" t="n"/>
-      <c r="D96" s="46" t="n"/>
-      <c r="E96" s="87" t="n"/>
-      <c r="F96" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="G96" s="19" t="inlineStr">
+    <row r="51">
+      <c r="B51" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="85" t="inlineStr">
+      <c r="C51" s="46" t="n"/>
+      <c r="D51" s="46" t="n"/>
+      <c r="E51" s="87" t="n"/>
+      <c r="F51" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G51" s="19" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
         </is>
       </c>
-      <c r="C97" s="46" t="n"/>
-      <c r="D97" s="46" t="n"/>
-      <c r="E97" s="48" t="n"/>
-      <c r="F97" s="7" t="inlineStr">
+      <c r="C52" s="46" t="n"/>
+      <c r="D52" s="46" t="n"/>
+      <c r="E52" s="48" t="n"/>
+      <c r="F52" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G97" s="8" t="inlineStr">
+      <c r="G52" s="8" t="inlineStr">
         <is>
           <t>Ekstra</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="B98" s="86" t="inlineStr">
+    <row r="53">
+      <c r="B53" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C98" s="46" t="n"/>
-      <c r="D98" s="46" t="n"/>
-      <c r="E98" s="87" t="n"/>
-      <c r="F98" s="18" t="inlineStr">
+      <c r="C53" s="46" t="n"/>
+      <c r="D53" s="46" t="n"/>
+      <c r="E53" s="87" t="n"/>
+      <c r="F53" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="G98" s="19" t="inlineStr">
+      <c r="G53" s="19" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="B99" s="85" t="inlineStr">
+    <row r="54">
+      <c r="B54" s="85" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
         </is>
       </c>
-      <c r="C99" s="46" t="n"/>
-      <c r="D99" s="46" t="n"/>
-      <c r="E99" s="48" t="n"/>
-      <c r="F99" s="7" t="inlineStr">
+      <c r="C54" s="46" t="n"/>
+      <c r="D54" s="46" t="n"/>
+      <c r="E54" s="48" t="n"/>
+      <c r="F54" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G99" s="8" t="n"/>
-    </row>
-    <row r="100">
-      <c r="B100" s="86" t="inlineStr">
+      <c r="G54" s="8" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C100" s="46" t="n"/>
-      <c r="D100" s="46" t="n"/>
-      <c r="E100" s="87" t="n"/>
-      <c r="F100" s="20" t="inlineStr">
+      <c r="C55" s="46" t="n"/>
+      <c r="D55" s="46" t="n"/>
+      <c r="E55" s="87" t="n"/>
+      <c r="F55" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="G100" s="16" t="n"/>
-    </row>
-    <row r="101">
-      <c r="B101" s="34" t="inlineStr">
+      <c r="G55" s="16" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="34" t="inlineStr">
         <is>
           <t>NÜVE ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C101" s="35" t="n"/>
-      <c r="D101" s="35" t="n"/>
-      <c r="E101" s="35" t="n"/>
-      <c r="F101" s="35" t="n"/>
-      <c r="G101" s="35" t="n"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="7" t="inlineStr">
+      <c r="C56" s="35" t="n"/>
+      <c r="D56" s="35" t="n"/>
+      <c r="E56" s="35" t="n"/>
+      <c r="F56" s="35" t="n"/>
+      <c r="G56" s="35" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C102" s="7" t="inlineStr">
+      <c r="C57" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D102" s="7" t="inlineStr">
+      <c r="D57" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E102" s="7" t="inlineStr">
+      <c r="E57" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F102" s="7" t="inlineStr">
+      <c r="F57" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G102" s="8" t="inlineStr">
+      <c r="G57" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="B103" s="28" t="inlineStr">
-        <is>
-          <t>200.0 mm</t>
-        </is>
-      </c>
-      <c r="C103" s="29" t="inlineStr">
-        <is>
-          <t>128.0 mm</t>
-        </is>
-      </c>
-      <c r="D103" s="29" t="inlineStr">
-        <is>
-          <t>218.0 mm</t>
-        </is>
-      </c>
-      <c r="E103" s="29" t="inlineStr"/>
-      <c r="F103" s="29" t="inlineStr"/>
-      <c r="G103" s="30" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="34" t="inlineStr">
+    <row r="58">
+      <c r="B58" s="28" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="C58" s="29" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="D58" s="29" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="30" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="34" t="inlineStr">
         <is>
           <t>TRAFO ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C104" s="35" t="n"/>
-      <c r="D104" s="35" t="n"/>
-      <c r="E104" s="35" t="n"/>
-      <c r="F104" s="35" t="n"/>
-      <c r="G104" s="35" t="n"/>
-    </row>
-    <row r="105">
-      <c r="B105" s="7" t="inlineStr">
+      <c r="C59" s="35" t="n"/>
+      <c r="D59" s="35" t="n"/>
+      <c r="E59" s="35" t="n"/>
+      <c r="F59" s="35" t="n"/>
+      <c r="G59" s="35" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C105" s="7" t="inlineStr">
+      <c r="C60" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D105" s="7" t="inlineStr">
+      <c r="D60" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E105" s="7" t="inlineStr">
+      <c r="E60" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F105" s="7" t="inlineStr">
+      <c r="F60" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G105" s="8" t="inlineStr">
+      <c r="G60" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="B106" s="28" t="inlineStr">
-        <is>
-          <t>242.0 mm</t>
-        </is>
-      </c>
-      <c r="C106" s="29" t="inlineStr">
-        <is>
-          <t>118.0 mm</t>
-        </is>
-      </c>
-      <c r="D106" s="29" t="inlineStr">
-        <is>
-          <t>202.0 mm</t>
-        </is>
-      </c>
-      <c r="E106" s="29" t="inlineStr">
-        <is>
-          <t>202.0 mm</t>
-        </is>
-      </c>
-      <c r="F106" s="29" t="inlineStr">
-        <is>
-          <t>94.0 mm</t>
-        </is>
-      </c>
-      <c r="G106" s="30" t="inlineStr">
+    <row r="61">
+      <c r="B61" s="28" t="inlineStr">
+        <is>
+          <t>578.0 mm</t>
+        </is>
+      </c>
+      <c r="C61" s="29" t="inlineStr">
+        <is>
+          <t>262.0 mm</t>
+        </is>
+      </c>
+      <c r="D61" s="29" t="inlineStr">
+        <is>
+          <t>386.0 mm</t>
+        </is>
+      </c>
+      <c r="E61" s="29" t="inlineStr">
+        <is>
+          <t>478.0 mm</t>
+        </is>
+      </c>
+      <c r="F61" s="29" t="inlineStr">
+        <is>
+          <t>196.0 mm</t>
+        </is>
+      </c>
+      <c r="G61" s="30" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2286,12 +2524,14 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I26:M26"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A26:E26"/>
   </mergeCells>
@@ -2314,7 +2554,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.44140625" customWidth="1" min="1" max="1"/>
     <col width="18.33203125" customWidth="1" min="2" max="2"/>
@@ -2360,16 +2600,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010011X30AET</t>
+          <t>H010014X00AET</t>
         </is>
       </c>
       <c r="C3" s="42" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D3" s="42" t="n">
-        <v>0.3266253721867416</v>
+        <v>1.391034525846743</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2380,16 +2620,16 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H0101204X30KPAL</t>
+          <t>H0100310X50YPFI</t>
         </is>
       </c>
       <c r="C4" s="42" t="inlineStr">
         <is>
-          <t>4.0x3.0</t>
+          <t>10.0x5.0</t>
         </is>
       </c>
       <c r="D4" s="42" t="n">
-        <v>0.347884632</v>
+        <v>0.9526036799999998</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>

--- a/media/reports/izolasyon_trifaz.xlsx
+++ b/media/reports/izolasyon_trifaz.xlsx
@@ -849,12 +849,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>7</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="323850" cy="2952750"/>
+    <ext cx="1019175" cy="1162050"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -876,7 +876,7 @@
     <from>
       <col>13</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -924,12 +924,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>1</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>47</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="323850" cy="2952750"/>
+    <ext cx="8839200" cy="5381625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -949,12 +949,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>6</col>
       <colOff>0</colOff>
-      <row>62</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8839200" cy="5381625"/>
+    <ext cx="676275" cy="695325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -962,31 +962,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="752475" cy="809625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1007,11 +982,11 @@
     <ext cx="752475" cy="809625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1317,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
@@ -1369,7 +1344,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44319.63433099508</v>
+        <v>44320.48625838057</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1402,7 +1377,7 @@
       </c>
       <c r="B3" s="71" t="inlineStr">
         <is>
-          <t>500.0 VA</t>
+          <t>250000.0 VA</t>
         </is>
       </c>
       <c r="C3" s="72" t="n"/>
@@ -1416,7 +1391,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>4.173 kg</t>
+          <t>15.753 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1428,7 +1403,7 @@
       <c r="K3" s="54" t="n"/>
       <c r="L3" s="75" t="inlineStr">
         <is>
-          <t>100.0 x 120.0 x 171.0</t>
+          <t>120.0 x 220.0 x 250.0</t>
         </is>
       </c>
       <c r="M3" s="53" t="n"/>
@@ -1457,7 +1432,7 @@
       </c>
       <c r="H4" s="73" t="inlineStr">
         <is>
-          <t>1.378 kg</t>
+          <t>14.429 kg</t>
         </is>
       </c>
       <c r="I4" s="51" t="n"/>
@@ -1469,7 +1444,7 @@
       <c r="K4" s="77" t="n"/>
       <c r="L4" s="78" t="inlineStr">
         <is>
-          <t>578.0 x 262.0 x 386.0</t>
+          <t>827.0 x 390.0 x 508.0</t>
         </is>
       </c>
       <c r="O4" s="77" t="n"/>
@@ -1482,7 +1457,7 @@
       </c>
       <c r="B5" s="71" t="inlineStr">
         <is>
-          <t>0.5 mm</t>
+          <t>0.35 mm</t>
         </is>
       </c>
       <c r="C5" s="72" t="n"/>
@@ -1521,7 +1496,7 @@
       </c>
       <c r="B6" s="71" t="inlineStr">
         <is>
-          <t>11500.0</t>
+          <t>12000.0</t>
         </is>
       </c>
       <c r="C6" s="72" t="n"/>
@@ -1535,7 +1510,7 @@
       </c>
       <c r="H6" s="73" t="inlineStr">
         <is>
-          <t>1.48 kg</t>
+          <t>0.0 kg</t>
         </is>
       </c>
       <c r="I6" s="51" t="n"/>
@@ -1547,7 +1522,7 @@
       <c r="K6" s="77" t="n"/>
       <c r="L6" s="78" t="inlineStr">
         <is>
-          <t>121.76 kg (Kesme Sac)</t>
+          <t>407.02 kg (Kesme Sac)</t>
         </is>
       </c>
       <c r="O6" s="77" t="n"/>
@@ -1574,7 +1549,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:5.551 //  Cu:1.48kg</t>
+          <t>Al:30.182 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1616,25 +1591,25 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>425.0 V ( 425.641V )</t>
+          <t>400.0 V ( 400.0V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>45.0 V ( 42.5641V )</t>
+          <t>400.0 V ( 231.5789V )</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="81" t="inlineStr">
         <is>
-          <t>2 NOLU KADEME:</t>
+          <t>1 NOLU KADEME:</t>
         </is>
       </c>
       <c r="I11" s="81" t="inlineStr">
         <is>
-          <t>2 NOLU KADEME:</t>
+          <t>1 NOLU KADEME:</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1634,7 @@
       </c>
       <c r="J12" s="22" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Al</t>
         </is>
       </c>
       <c r="K12" s="22" t="n"/>
@@ -1673,7 +1648,7 @@
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
@@ -1697,7 +1672,7 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>12.56637061435917</v>
+        <v>44</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1709,7 +1684,7 @@
         </is>
       </c>
       <c r="J14" s="21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K14" s="21" t="n"/>
       <c r="L14" s="21" t="n"/>
@@ -1723,7 +1698,7 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>20.10619298297468</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1735,7 +1710,7 @@
         </is>
       </c>
       <c r="J15" s="21" t="n">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="K15" s="21" t="n"/>
       <c r="L15" s="21" t="n"/>
@@ -1749,7 +1724,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1760,7 +1735,7 @@
         </is>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="21" t="n"/>
       <c r="L16" s="21" t="n"/>
@@ -1773,7 +1748,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>1.058664</v>
+        <v>44.199</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1784,7 +1759,7 @@
         </is>
       </c>
       <c r="J17" s="21" t="n">
-        <v>1.134052</v>
+        <v>29.68945</v>
       </c>
       <c r="K17" s="21" t="n"/>
       <c r="L17" s="21" t="n"/>
@@ -1816,15 +1791,13 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B19" s="84" t="n">
-        <v>4</v>
-      </c>
+      <c r="B19" s="24" t="n"/>
       <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>80 sp</t>
+          <t>57 sp</t>
         </is>
       </c>
       <c r="I19" s="82" t="inlineStr">
@@ -1838,7 +1811,7 @@
       <c r="M19" s="24" t="n"/>
       <c r="O19" s="17" t="inlineStr">
         <is>
-          <t>8 sp</t>
+          <t>33 sp</t>
         </is>
       </c>
     </row>
@@ -1848,9 +1821,7 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B20" s="84" t="n">
-        <v>0.03591962328621584</v>
-      </c>
+      <c r="B20" s="26" t="n"/>
       <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
@@ -1870,7 +1841,11 @@
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B21" s="24" t="n"/>
+      <c r="B21" s="84" t="inlineStr">
+        <is>
+          <t>11.0x4.0</t>
+        </is>
+      </c>
       <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
@@ -1881,7 +1856,7 @@
       </c>
       <c r="J21" s="84" t="inlineStr">
         <is>
-          <t>10.0x5.0</t>
+          <t>12.0x5.0</t>
         </is>
       </c>
       <c r="K21" s="24" t="n"/>
@@ -1894,7 +1869,9 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B22" s="26" t="n"/>
+      <c r="B22" s="84" t="n">
+        <v>5.2508412</v>
+      </c>
       <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
@@ -1904,7 +1881,7 @@
         </is>
       </c>
       <c r="J22" s="84" t="n">
-        <v>0.4933126199999999</v>
+        <v>4.809690900000001</v>
       </c>
       <c r="K22" s="26" t="n"/>
       <c r="L22" s="26" t="n"/>
@@ -1960,11 +1937,7 @@
       <c r="C25" s="24" t="n"/>
       <c r="D25" s="24" t="n"/>
       <c r="E25" s="24" t="n"/>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>415.0 V ( 415.0V )</t>
-        </is>
-      </c>
+      <c r="G25" s="2" t="n"/>
       <c r="I25" s="82" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -1974,532 +1947,278 @@
       <c r="K25" s="24" t="n"/>
       <c r="L25" s="24" t="n"/>
       <c r="M25" s="24" t="n"/>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>32.0 V ( 31.9231V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-      <c r="I26" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="B27" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-      <c r="I27" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="J27" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="B28" s="83" t="n">
-        <v>4</v>
-      </c>
-      <c r="I28" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="J28" s="83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="B29" s="83" t="n">
-        <v>12.56637061435917</v>
-      </c>
-      <c r="I29" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="J29" s="83" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="B30" s="83" t="n">
-        <v>20.10619298297468</v>
-      </c>
-      <c r="I30" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="J30" s="83" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="B31" s="83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="J31" s="83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="B32" s="83" t="n">
-        <v>39.939488</v>
-      </c>
-      <c r="I32" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="J32" s="83" t="n">
-        <v>3.402156</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" thickBot="1">
-      <c r="B33" s="83" t="inlineStr"/>
-      <c r="C33" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-      <c r="J33" s="83" t="inlineStr"/>
-      <c r="K33" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-    </row>
+      <c r="O25" s="2" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1"/>
+    <row r="27" ht="15" customHeight="1"/>
+    <row r="28" ht="15" customHeight="1"/>
+    <row r="29" ht="15" customHeight="1" thickBot="1"/>
+    <row r="30" ht="15" customHeight="1" thickBot="1"/>
+    <row r="31" ht="15" customHeight="1" thickBot="1"/>
+    <row r="32" ht="15" customHeight="1" thickBot="1"/>
+    <row r="33" ht="15" customHeight="1" thickBot="1"/>
     <row r="34" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="B34" s="84" t="n">
-        <v>4</v>
-      </c>
-      <c r="G34" s="17" t="inlineStr">
-        <is>
-          <t>78 sp</t>
-        </is>
-      </c>
-      <c r="I34" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="O34" s="17" t="inlineStr">
-        <is>
-          <t>6 sp</t>
-        </is>
-      </c>
+      <c r="B34" s="34" t="inlineStr">
+        <is>
+          <t>IZOLASYON DEGERLERI</t>
+        </is>
+      </c>
+      <c r="C34" s="35" t="n"/>
+      <c r="D34" s="35" t="n"/>
+      <c r="E34" s="35" t="n"/>
+      <c r="F34" s="35" t="n"/>
+      <c r="G34" s="15" t="n"/>
     </row>
     <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-      <c r="B35" s="84" t="n">
-        <v>1.355114902560527</v>
-      </c>
-      <c r="I35" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
+      <c r="B35" s="85" t="inlineStr">
+        <is>
+          <t>Primer Kademe</t>
+        </is>
+      </c>
+      <c r="C35" s="46" t="n"/>
+      <c r="D35" s="46" t="n"/>
+      <c r="E35" s="48" t="n"/>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ekran </t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-      <c r="I36" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
-        </is>
-      </c>
-      <c r="J36" s="84" t="inlineStr">
-        <is>
-          <t>10.0x5.0</t>
+      <c r="B36" s="86" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C36" s="46" t="n"/>
+      <c r="D36" s="46" t="n"/>
+      <c r="E36" s="87" t="n"/>
+      <c r="F36" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" s="19" t="inlineStr">
+        <is>
+          <t>Ø : 0.19</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-      <c r="I37" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
-        </is>
-      </c>
-      <c r="J37" s="84" t="n">
-        <v>0.45929106</v>
+      <c r="B37" s="85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VA Kademe </t>
+        </is>
+      </c>
+      <c r="C37" s="46" t="n"/>
+      <c r="D37" s="46" t="n"/>
+      <c r="E37" s="48" t="n"/>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>Ekstra</t>
+        </is>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
-        </is>
-      </c>
-      <c r="I38" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
+      <c r="B38" s="86" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C38" s="46" t="n"/>
+      <c r="D38" s="46" t="n"/>
+      <c r="E38" s="87" t="n"/>
+      <c r="F38" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G38" s="19" t="inlineStr">
+        <is>
+          <t>Yok</t>
         </is>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
-      <c r="I39" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
+      <c r="B39" s="85" t="inlineStr">
+        <is>
+          <t>Primer-Sekonder</t>
+        </is>
+      </c>
+      <c r="C39" s="46" t="n"/>
+      <c r="D39" s="46" t="n"/>
+      <c r="E39" s="48" t="n"/>
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="n"/>
     </row>
     <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-      <c r="I40" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1"/>
-    <row r="42" ht="15" customHeight="1" thickBot="1"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49">
-      <c r="B49" s="34" t="inlineStr">
-        <is>
-          <t>IZOLASYON DEGERLERI</t>
-        </is>
-      </c>
-      <c r="C49" s="35" t="n"/>
-      <c r="D49" s="35" t="n"/>
-      <c r="E49" s="35" t="n"/>
-      <c r="F49" s="35" t="n"/>
-      <c r="G49" s="15" t="n"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="85" t="inlineStr">
-        <is>
-          <t>Primer Kademe</t>
-        </is>
-      </c>
-      <c r="C50" s="46" t="n"/>
-      <c r="D50" s="46" t="n"/>
-      <c r="E50" s="48" t="n"/>
-      <c r="F50" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G50" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekran </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="86" t="inlineStr">
+      <c r="B40" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C51" s="46" t="n"/>
-      <c r="D51" s="46" t="n"/>
-      <c r="E51" s="87" t="n"/>
-      <c r="F51" s="18" t="inlineStr">
+      <c r="C40" s="46" t="n"/>
+      <c r="D40" s="46" t="n"/>
+      <c r="E40" s="87" t="n"/>
+      <c r="F40" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="G51" s="19" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VA Kademe </t>
-        </is>
-      </c>
-      <c r="C52" s="46" t="n"/>
-      <c r="D52" s="46" t="n"/>
-      <c r="E52" s="48" t="n"/>
-      <c r="F52" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G52" s="8" t="inlineStr">
-        <is>
-          <t>Ekstra</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="86" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="C53" s="46" t="n"/>
-      <c r="D53" s="46" t="n"/>
-      <c r="E53" s="87" t="n"/>
-      <c r="F53" s="18" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="G53" s="19" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="85" t="inlineStr">
-        <is>
-          <t>Primer-Sekonder</t>
-        </is>
-      </c>
-      <c r="C54" s="46" t="n"/>
-      <c r="D54" s="46" t="n"/>
-      <c r="E54" s="48" t="n"/>
-      <c r="F54" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G54" s="8" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="86" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="C55" s="46" t="n"/>
-      <c r="D55" s="46" t="n"/>
-      <c r="E55" s="87" t="n"/>
-      <c r="F55" s="20" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="G55" s="16" t="n"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="34" t="inlineStr">
+      <c r="G40" s="16" t="n"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" thickBot="1">
+      <c r="B41" s="34" t="inlineStr">
         <is>
           <t>NÜVE ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C56" s="35" t="n"/>
-      <c r="D56" s="35" t="n"/>
-      <c r="E56" s="35" t="n"/>
-      <c r="F56" s="35" t="n"/>
-      <c r="G56" s="35" t="n"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="7" t="inlineStr">
+      <c r="C41" s="35" t="n"/>
+      <c r="D41" s="35" t="n"/>
+      <c r="E41" s="35" t="n"/>
+      <c r="F41" s="35" t="n"/>
+      <c r="G41" s="35" t="n"/>
+    </row>
+    <row r="42" ht="15" customHeight="1" thickBot="1">
+      <c r="B42" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C57" s="7" t="inlineStr">
+      <c r="C42" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D57" s="7" t="inlineStr">
+      <c r="D42" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E57" s="7" t="inlineStr">
+      <c r="E42" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F57" s="7" t="inlineStr">
+      <c r="F42" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G57" s="8" t="inlineStr">
+      <c r="G42" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" s="28" t="inlineStr">
+    <row r="43">
+      <c r="B43" s="28" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
-      <c r="C58" s="29" t="inlineStr">
+      <c r="C43" s="29" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
-      <c r="D58" s="29" t="inlineStr">
+      <c r="D43" s="29" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="30" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="34" t="inlineStr">
+      <c r="E43" s="29" t="inlineStr"/>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="30" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="34" t="inlineStr">
         <is>
           <t>TRAFO ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C59" s="35" t="n"/>
-      <c r="D59" s="35" t="n"/>
-      <c r="E59" s="35" t="n"/>
-      <c r="F59" s="35" t="n"/>
-      <c r="G59" s="35" t="n"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="7" t="inlineStr">
+      <c r="C44" s="35" t="n"/>
+      <c r="D44" s="35" t="n"/>
+      <c r="E44" s="35" t="n"/>
+      <c r="F44" s="35" t="n"/>
+      <c r="G44" s="35" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C60" s="7" t="inlineStr">
+      <c r="C45" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D60" s="7" t="inlineStr">
+      <c r="D45" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E60" s="7" t="inlineStr">
+      <c r="E45" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F60" s="7" t="inlineStr">
+      <c r="F45" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G60" s="8" t="inlineStr">
+      <c r="G45" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" s="28" t="inlineStr">
-        <is>
-          <t>578.0 mm</t>
-        </is>
-      </c>
-      <c r="C61" s="29" t="inlineStr">
-        <is>
-          <t>262.0 mm</t>
-        </is>
-      </c>
-      <c r="D61" s="29" t="inlineStr">
-        <is>
-          <t>386.0 mm</t>
-        </is>
-      </c>
-      <c r="E61" s="29" t="inlineStr">
-        <is>
-          <t>478.0 mm</t>
-        </is>
-      </c>
-      <c r="F61" s="29" t="inlineStr">
-        <is>
-          <t>196.0 mm</t>
-        </is>
-      </c>
-      <c r="G61" s="30" t="inlineStr">
+    <row r="46">
+      <c r="B46" s="28" t="inlineStr">
+        <is>
+          <t>827.0 mm</t>
+        </is>
+      </c>
+      <c r="C46" s="29" t="inlineStr">
+        <is>
+          <t>390.0 mm</t>
+        </is>
+      </c>
+      <c r="D46" s="29" t="inlineStr">
+        <is>
+          <t>508.0 mm</t>
+        </is>
+      </c>
+      <c r="E46" s="29" t="inlineStr">
+        <is>
+          <t>707.0 mm</t>
+        </is>
+      </c>
+      <c r="F46" s="29" t="inlineStr">
+        <is>
+          <t>310.0 mm</t>
+        </is>
+      </c>
+      <c r="G46" s="30" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="32">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2524,16 +2243,14 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
     <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I26:M26"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
@@ -2600,16 +2317,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010014X00AET</t>
+          <t>H01012112X04YSBT</t>
         </is>
       </c>
       <c r="C3" s="42" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>11.0x4.0</t>
         </is>
       </c>
       <c r="D3" s="42" t="n">
-        <v>1.391034525846743</v>
+        <v>5.2508412</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2620,16 +2337,16 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H0100310X50YPFI</t>
+          <t>H0103012X050PF</t>
         </is>
       </c>
       <c r="C4" s="42" t="inlineStr">
         <is>
-          <t>10.0x5.0</t>
+          <t>12.0x5.0</t>
         </is>
       </c>
       <c r="D4" s="42" t="n">
-        <v>0.9526036799999998</v>
+        <v>4.809690900000001</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>

--- a/media/reports/izolasyon_trifaz.xlsx
+++ b/media/reports/izolasyon_trifaz.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -652,25 +652,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -700,37 +718,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -954,7 +951,7 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="676275" cy="695325"/>
+    <ext cx="752475" cy="809625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -1323,17 +1320,17 @@
           <t>Trafo Tipi :</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="55" t="inlineStr">
         <is>
           <t xml:space="preserve"> Izolasyon Trafosu Trifaz Hesap Ozeti</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n"/>
-      <c r="D1" s="46" t="n"/>
-      <c r="E1" s="46" t="n"/>
-      <c r="F1" s="46" t="n"/>
-      <c r="G1" s="46" t="n"/>
-      <c r="H1" s="46" t="n"/>
+      <c r="C1" s="49" t="n"/>
+      <c r="D1" s="49" t="n"/>
+      <c r="E1" s="49" t="n"/>
+      <c r="F1" s="49" t="n"/>
+      <c r="G1" s="49" t="n"/>
+      <c r="H1" s="49" t="n"/>
       <c r="I1" s="11" t="n"/>
       <c r="J1" s="6" t="inlineStr">
         <is>
@@ -1343,31 +1340,31 @@
       <c r="K1" s="27" t="n"/>
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
-      <c r="N1" s="70" t="n">
-        <v>44320.48625838057</v>
-      </c>
-      <c r="O1" s="48" t="n"/>
+      <c r="N1" s="57" t="n">
+        <v>44321.48259048545</v>
+      </c>
+      <c r="O1" s="50" t="n"/>
     </row>
     <row r="2" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="inlineStr">
+      <c r="A2" s="58" t="inlineStr">
         <is>
           <t>Değerler</t>
         </is>
       </c>
-      <c r="B2" s="46" t="n"/>
-      <c r="C2" s="46" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="46" t="n"/>
-      <c r="F2" s="46" t="n"/>
-      <c r="G2" s="46" t="n"/>
-      <c r="H2" s="46" t="n"/>
-      <c r="I2" s="46" t="n"/>
-      <c r="J2" s="46" t="n"/>
-      <c r="K2" s="46" t="n"/>
-      <c r="L2" s="46" t="n"/>
-      <c r="M2" s="46" t="n"/>
-      <c r="N2" s="46" t="n"/>
-      <c r="O2" s="48" t="n"/>
+      <c r="B2" s="49" t="n"/>
+      <c r="C2" s="49" t="n"/>
+      <c r="D2" s="49" t="n"/>
+      <c r="E2" s="49" t="n"/>
+      <c r="F2" s="49" t="n"/>
+      <c r="G2" s="49" t="n"/>
+      <c r="H2" s="49" t="n"/>
+      <c r="I2" s="49" t="n"/>
+      <c r="J2" s="49" t="n"/>
+      <c r="K2" s="49" t="n"/>
+      <c r="L2" s="49" t="n"/>
+      <c r="M2" s="49" t="n"/>
+      <c r="N2" s="49" t="n"/>
+      <c r="O2" s="50" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -1375,7 +1372,7 @@
           <t>Güç :</t>
         </is>
       </c>
-      <c r="B3" s="71" t="inlineStr">
+      <c r="B3" s="52" t="inlineStr">
         <is>
           <t>250000.0 VA</t>
         </is>
@@ -1383,32 +1380,32 @@
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="72" t="n"/>
       <c r="E3" s="72" t="n"/>
-      <c r="F3" s="51" t="n"/>
+      <c r="F3" s="54" t="n"/>
       <c r="G3" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Al) :</t>
         </is>
       </c>
-      <c r="H3" s="73" t="inlineStr">
-        <is>
-          <t>15.753 kg</t>
-        </is>
-      </c>
-      <c r="I3" s="51" t="n"/>
-      <c r="J3" s="74" t="inlineStr">
+      <c r="H3" s="53" t="inlineStr">
+        <is>
+          <t>8.908 kg</t>
+        </is>
+      </c>
+      <c r="I3" s="54" t="n"/>
+      <c r="J3" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">Karkas Ölçüleri : </t>
         </is>
       </c>
-      <c r="K3" s="54" t="n"/>
-      <c r="L3" s="75" t="inlineStr">
+      <c r="K3" s="60" t="n"/>
+      <c r="L3" s="74" t="inlineStr">
         <is>
           <t>120.0 x 220.0 x 250.0</t>
         </is>
       </c>
-      <c r="M3" s="53" t="n"/>
-      <c r="N3" s="53" t="n"/>
-      <c r="O3" s="54" t="n"/>
+      <c r="M3" s="59" t="n"/>
+      <c r="N3" s="59" t="n"/>
+      <c r="O3" s="60" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -1416,7 +1413,7 @@
           <t>Sac kk :</t>
         </is>
       </c>
-      <c r="B4" s="71" t="inlineStr">
+      <c r="B4" s="52" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
@@ -1424,30 +1421,30 @@
       <c r="C4" s="72" t="n"/>
       <c r="D4" s="72" t="n"/>
       <c r="E4" s="72" t="n"/>
-      <c r="F4" s="51" t="n"/>
+      <c r="F4" s="54" t="n"/>
       <c r="G4" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="73" t="inlineStr">
+      <c r="H4" s="53" t="inlineStr">
         <is>
           <t>14.429 kg</t>
         </is>
       </c>
-      <c r="I4" s="51" t="n"/>
-      <c r="J4" s="76" t="inlineStr">
+      <c r="I4" s="54" t="n"/>
+      <c r="J4" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Trafo Ölçüleri : </t>
         </is>
       </c>
-      <c r="K4" s="77" t="n"/>
-      <c r="L4" s="78" t="inlineStr">
+      <c r="K4" s="76" t="n"/>
+      <c r="L4" s="77" t="inlineStr">
         <is>
           <t>827.0 x 390.0 x 508.0</t>
         </is>
       </c>
-      <c r="O4" s="77" t="n"/>
+      <c r="O4" s="76" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -1455,7 +1452,7 @@
           <t>Sac ©</t>
         </is>
       </c>
-      <c r="B5" s="71" t="inlineStr">
+      <c r="B5" s="52" t="inlineStr">
         <is>
           <t>0.35 mm</t>
         </is>
@@ -1463,30 +1460,30 @@
       <c r="C5" s="72" t="n"/>
       <c r="D5" s="72" t="n"/>
       <c r="E5" s="72" t="n"/>
-      <c r="F5" s="51" t="n"/>
+      <c r="F5" s="54" t="n"/>
       <c r="G5" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H5" s="73" t="inlineStr">
+      <c r="H5" s="53" t="inlineStr">
         <is>
           <t>0.0 kg</t>
         </is>
       </c>
-      <c r="I5" s="51" t="n"/>
-      <c r="J5" s="76" t="inlineStr">
+      <c r="I5" s="54" t="n"/>
+      <c r="J5" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Klemens &amp; Ayak : </t>
         </is>
       </c>
-      <c r="K5" s="77" t="n"/>
-      <c r="L5" s="78" t="inlineStr">
+      <c r="K5" s="76" t="n"/>
+      <c r="L5" s="77" t="inlineStr">
         <is>
           <t>AVK2.5 / 0.0 / 45.0 - 180 Kose</t>
         </is>
       </c>
-      <c r="O5" s="77" t="n"/>
+      <c r="O5" s="76" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1494,7 +1491,7 @@
           <t>Gauss :</t>
         </is>
       </c>
-      <c r="B6" s="71" t="inlineStr">
+      <c r="B6" s="52" t="inlineStr">
         <is>
           <t>12000.0</t>
         </is>
@@ -1502,30 +1499,30 @@
       <c r="C6" s="72" t="n"/>
       <c r="D6" s="72" t="n"/>
       <c r="E6" s="72" t="n"/>
-      <c r="F6" s="51" t="n"/>
+      <c r="F6" s="54" t="n"/>
       <c r="G6" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="73" t="inlineStr">
+      <c r="H6" s="53" t="inlineStr">
         <is>
           <t>0.0 kg</t>
         </is>
       </c>
-      <c r="I6" s="51" t="n"/>
-      <c r="J6" s="76" t="inlineStr">
+      <c r="I6" s="54" t="n"/>
+      <c r="J6" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Sac Agirlik : </t>
         </is>
       </c>
-      <c r="K6" s="77" t="n"/>
-      <c r="L6" s="78" t="inlineStr">
-        <is>
-          <t>407.02 kg (Kesme Sac)</t>
-        </is>
-      </c>
-      <c r="O6" s="77" t="n"/>
+      <c r="K6" s="76" t="n"/>
+      <c r="L6" s="77" t="inlineStr">
+        <is>
+          <t>407.02 kg(Kesme Sac)</t>
+        </is>
+      </c>
+      <c r="O6" s="76" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="inlineStr">
@@ -1533,7 +1530,7 @@
           <t>Frekans :</t>
         </is>
       </c>
-      <c r="B7" s="71" t="inlineStr">
+      <c r="B7" s="52" t="inlineStr">
         <is>
           <t>50.0 Hz</t>
         </is>
@@ -1541,20 +1538,20 @@
       <c r="C7" s="72" t="n"/>
       <c r="D7" s="72" t="n"/>
       <c r="E7" s="72" t="n"/>
-      <c r="F7" s="51" t="n"/>
+      <c r="F7" s="54" t="n"/>
       <c r="G7" s="10" t="inlineStr">
         <is>
           <t>Toplam Agirlik :</t>
         </is>
       </c>
-      <c r="H7" s="73" t="inlineStr">
-        <is>
-          <t>Al:30.182 //  Cu:0.0kg</t>
-        </is>
-      </c>
-      <c r="I7" s="51" t="n"/>
-      <c r="J7" s="79" t="n"/>
-      <c r="K7" s="80" t="n"/>
+      <c r="H7" s="53" t="inlineStr">
+        <is>
+          <t>Al:23.337 //  Cu:0.0kg</t>
+        </is>
+      </c>
+      <c r="I7" s="54" t="n"/>
+      <c r="J7" s="78" t="n"/>
+      <c r="K7" s="79" t="n"/>
       <c r="L7" s="32" t="n"/>
       <c r="M7" s="31" t="n"/>
       <c r="N7" s="31" t="n"/>
@@ -1564,28 +1561,28 @@
       <c r="A8" s="1" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="67" t="inlineStr">
+      <c r="A9" s="48" t="inlineStr">
         <is>
           <t>Primer</t>
         </is>
       </c>
-      <c r="B9" s="46" t="n"/>
-      <c r="C9" s="46" t="n"/>
-      <c r="D9" s="46" t="n"/>
-      <c r="E9" s="46" t="n"/>
-      <c r="F9" s="46" t="n"/>
-      <c r="G9" s="48" t="n"/>
-      <c r="I9" s="68" t="inlineStr">
+      <c r="B9" s="49" t="n"/>
+      <c r="C9" s="49" t="n"/>
+      <c r="D9" s="49" t="n"/>
+      <c r="E9" s="49" t="n"/>
+      <c r="F9" s="49" t="n"/>
+      <c r="G9" s="50" t="n"/>
+      <c r="I9" s="51" t="inlineStr">
         <is>
           <t>Sekonder</t>
         </is>
       </c>
-      <c r="J9" s="46" t="n"/>
-      <c r="K9" s="46" t="n"/>
-      <c r="L9" s="46" t="n"/>
-      <c r="M9" s="46" t="n"/>
-      <c r="N9" s="46" t="n"/>
-      <c r="O9" s="48" t="n"/>
+      <c r="J9" s="49" t="n"/>
+      <c r="K9" s="49" t="n"/>
+      <c r="L9" s="49" t="n"/>
+      <c r="M9" s="49" t="n"/>
+      <c r="N9" s="49" t="n"/>
+      <c r="O9" s="50" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -1597,24 +1594,24 @@
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>400.0 V ( 231.5789V )</t>
+          <t>400.0 V ( 400.0V )</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="81" t="inlineStr">
+      <c r="A11" s="80" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
       </c>
-      <c r="I11" s="81" t="inlineStr">
+      <c r="I11" s="80" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="82" t="inlineStr">
+      <c r="A12" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
@@ -1627,7 +1624,7 @@
       <c r="C12" s="22" t="n"/>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="n"/>
-      <c r="I12" s="82" t="inlineStr">
+      <c r="I12" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
@@ -1642,7 +1639,7 @@
       <c r="M12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="82" t="inlineStr">
+      <c r="A13" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
@@ -1653,7 +1650,7 @@
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="n"/>
-      <c r="I13" s="82" t="inlineStr">
+      <c r="I13" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
@@ -1666,7 +1663,7 @@
       <c r="M13" s="21" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="82" t="inlineStr">
+      <c r="A14" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
@@ -1678,7 +1675,7 @@
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="n"/>
       <c r="G14" s="1" t="n"/>
-      <c r="I14" s="82" t="inlineStr">
+      <c r="I14" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
@@ -1692,7 +1689,7 @@
       <c r="O14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="82" t="inlineStr">
+      <c r="A15" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
@@ -1704,7 +1701,7 @@
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="n"/>
       <c r="G15" s="2" t="n"/>
-      <c r="I15" s="82" t="inlineStr">
+      <c r="I15" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
@@ -1718,18 +1715,18 @@
       <c r="O15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="82" t="inlineStr">
+      <c r="A16" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="n"/>
-      <c r="I16" s="82" t="inlineStr">
+      <c r="I16" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
@@ -1742,18 +1739,18 @@
       <c r="M16" s="21" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="82" t="inlineStr">
+      <c r="A17" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>44.199</v>
+        <v>24.993</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="n"/>
-      <c r="I17" s="82" t="inlineStr">
+      <c r="I17" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
@@ -1766,8 +1763,8 @@
       <c r="M17" s="21" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="83" t="inlineStr"/>
-      <c r="C18" s="82" t="inlineStr">
+      <c r="B18" s="82" t="inlineStr"/>
+      <c r="C18" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
@@ -1775,8 +1772,8 @@
       <c r="D18" s="25" t="n"/>
       <c r="E18" s="25" t="n"/>
       <c r="G18" s="2" t="n"/>
-      <c r="J18" s="83" t="inlineStr"/>
-      <c r="K18" s="82" t="inlineStr">
+      <c r="J18" s="82" t="inlineStr"/>
+      <c r="K18" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
@@ -1786,7 +1783,7 @@
       <c r="O18" s="2" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="82" t="inlineStr">
+      <c r="A19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
@@ -1797,10 +1794,10 @@
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>57 sp</t>
-        </is>
-      </c>
-      <c r="I19" s="82" t="inlineStr">
+          <t>33 sp</t>
+        </is>
+      </c>
+      <c r="I19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
@@ -1816,7 +1813,7 @@
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="82" t="inlineStr">
+      <c r="A20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
@@ -1825,7 +1822,7 @@
       <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
-      <c r="I20" s="82" t="inlineStr">
+      <c r="I20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
@@ -1836,12 +1833,12 @@
       <c r="M20" s="26" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="82" t="inlineStr">
+      <c r="A21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B21" s="84" t="inlineStr">
+      <c r="B21" s="83" t="inlineStr">
         <is>
           <t>11.0x4.0</t>
         </is>
@@ -1849,12 +1846,12 @@
       <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
-      <c r="I21" s="82" t="inlineStr">
+      <c r="I21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="J21" s="84" t="inlineStr">
+      <c r="J21" s="83" t="inlineStr">
         <is>
           <t>12.0x5.0</t>
         </is>
@@ -1864,23 +1861,23 @@
       <c r="M21" s="24" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="82" t="inlineStr">
+      <c r="A22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B22" s="84" t="n">
-        <v>5.2508412</v>
+      <c r="B22" s="83" t="n">
+        <v>2.9691684</v>
       </c>
       <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
-      <c r="I22" s="82" t="inlineStr">
+      <c r="I22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="J22" s="84" t="n">
+      <c r="J22" s="83" t="n">
         <v>4.809690900000001</v>
       </c>
       <c r="K22" s="26" t="n"/>
@@ -1888,7 +1885,7 @@
       <c r="M22" s="26" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="82" t="inlineStr">
+      <c r="A23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
@@ -1897,7 +1894,7 @@
       <c r="C23" s="24" t="n"/>
       <c r="D23" s="24" t="n"/>
       <c r="E23" s="24" t="n"/>
-      <c r="I23" s="82" t="inlineStr">
+      <c r="I23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
@@ -1908,7 +1905,7 @@
       <c r="M23" s="24" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="82" t="inlineStr">
+      <c r="A24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
@@ -1917,7 +1914,7 @@
       <c r="C24" s="26" t="n"/>
       <c r="D24" s="26" t="n"/>
       <c r="E24" s="26" t="n"/>
-      <c r="I24" s="82" t="inlineStr">
+      <c r="I24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
@@ -1928,7 +1925,7 @@
       <c r="M24" s="26" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="82" t="inlineStr">
+      <c r="A25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1938,7 +1935,7 @@
       <c r="D25" s="24" t="n"/>
       <c r="E25" s="24" t="n"/>
       <c r="G25" s="2" t="n"/>
-      <c r="I25" s="82" t="inlineStr">
+      <c r="I25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1970,14 +1967,14 @@
       <c r="G34" s="15" t="n"/>
     </row>
     <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="B35" s="85" t="inlineStr">
+      <c r="B35" s="84" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
         </is>
       </c>
-      <c r="C35" s="46" t="n"/>
-      <c r="D35" s="46" t="n"/>
-      <c r="E35" s="48" t="n"/>
+      <c r="C35" s="49" t="n"/>
+      <c r="D35" s="49" t="n"/>
+      <c r="E35" s="50" t="n"/>
       <c r="F35" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -1990,12 +1987,12 @@
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="86" t="n">
+      <c r="B36" s="85" t="n">
         <v>0.19</v>
       </c>
-      <c r="C36" s="46" t="n"/>
-      <c r="D36" s="46" t="n"/>
-      <c r="E36" s="87" t="n"/>
+      <c r="C36" s="49" t="n"/>
+      <c r="D36" s="49" t="n"/>
+      <c r="E36" s="86" t="n"/>
       <c r="F36" s="18" t="n">
         <v>20</v>
       </c>
@@ -2006,14 +2003,14 @@
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="85" t="inlineStr">
+      <c r="B37" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
         </is>
       </c>
-      <c r="C37" s="46" t="n"/>
-      <c r="D37" s="46" t="n"/>
-      <c r="E37" s="48" t="n"/>
+      <c r="C37" s="49" t="n"/>
+      <c r="D37" s="49" t="n"/>
+      <c r="E37" s="50" t="n"/>
       <c r="F37" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -2026,14 +2023,14 @@
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="B38" s="86" t="inlineStr">
+      <c r="B38" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C38" s="46" t="n"/>
-      <c r="D38" s="46" t="n"/>
-      <c r="E38" s="87" t="n"/>
+      <c r="C38" s="49" t="n"/>
+      <c r="D38" s="49" t="n"/>
+      <c r="E38" s="86" t="n"/>
       <c r="F38" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2046,14 +2043,14 @@
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="B39" s="85" t="inlineStr">
+      <c r="B39" s="84" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
         </is>
       </c>
-      <c r="C39" s="46" t="n"/>
-      <c r="D39" s="46" t="n"/>
-      <c r="E39" s="48" t="n"/>
+      <c r="C39" s="49" t="n"/>
+      <c r="D39" s="49" t="n"/>
+      <c r="E39" s="50" t="n"/>
       <c r="F39" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -2062,14 +2059,14 @@
       <c r="G39" s="8" t="n"/>
     </row>
     <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="B40" s="86" t="inlineStr">
+      <c r="B40" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C40" s="46" t="n"/>
-      <c r="D40" s="46" t="n"/>
-      <c r="E40" s="87" t="n"/>
+      <c r="C40" s="49" t="n"/>
+      <c r="D40" s="49" t="n"/>
+      <c r="E40" s="86" t="n"/>
       <c r="F40" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2219,14 +2216,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B3:F3"/>
@@ -2243,6 +2232,14 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
@@ -2268,15 +2265,15 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" activeCellId="1" sqref="D1:D1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="18.33203125" customWidth="1" min="2" max="2"/>
-    <col width="9.77734375" customWidth="1" min="3" max="3"/>
-    <col width="10.88671875" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19.33203125" customWidth="1" style="25" min="3" max="3"/>
+    <col width="19.77734375" customWidth="1" style="25" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2286,10 +2283,10 @@
           <t>Malzeme Listesi</t>
         </is>
       </c>
-      <c r="C1" s="88" t="n"/>
-      <c r="D1" s="88" t="n"/>
-      <c r="E1" s="88" t="n"/>
-      <c r="F1" s="89" t="n"/>
+      <c r="C1" s="87" t="n"/>
+      <c r="D1" s="87" t="n"/>
+      <c r="E1" s="87" t="n"/>
+      <c r="F1" s="88" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="42" t="n"/>
@@ -2298,12 +2295,12 @@
           <t>Urun Kodu</t>
         </is>
       </c>
-      <c r="C2" s="43" t="inlineStr">
+      <c r="C2" s="70" t="inlineStr">
         <is>
           <t>Cap/Kesit</t>
         </is>
       </c>
-      <c r="D2" s="43" t="inlineStr">
+      <c r="D2" s="70" t="inlineStr">
         <is>
           <t>Agirlik</t>
         </is>
@@ -2320,13 +2317,13 @@
           <t>H01012112X04YSBT</t>
         </is>
       </c>
-      <c r="C3" s="42" t="inlineStr">
+      <c r="C3" s="71" t="inlineStr">
         <is>
           <t>11.0x4.0</t>
         </is>
       </c>
-      <c r="D3" s="42" t="n">
-        <v>5.2508412</v>
+      <c r="D3" s="71" t="n">
+        <v>2.9691684</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2340,12 +2337,12 @@
           <t>H0103012X050PF</t>
         </is>
       </c>
-      <c r="C4" s="42" t="inlineStr">
+      <c r="C4" s="71" t="inlineStr">
         <is>
           <t>12.0x5.0</t>
         </is>
       </c>
-      <c r="D4" s="42" t="n">
+      <c r="D4" s="71" t="n">
         <v>4.809690900000001</v>
       </c>
       <c r="E4" s="42" t="n"/>
@@ -2355,9 +2352,17 @@
       <c r="A5" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="n"/>
-      <c r="C5" s="42" t="n"/>
-      <c r="D5" s="42" t="n"/>
+      <c r="B5" s="42" t="inlineStr">
+        <is>
+          <t>H0215010000TD</t>
+        </is>
+      </c>
+      <c r="C5" s="71" t="inlineStr">
+        <is>
+          <t>120.0 x 220.0 x 250.0</t>
+        </is>
+      </c>
+      <c r="D5" s="71" t="n"/>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>
@@ -2365,9 +2370,21 @@
       <c r="A6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="n"/>
-      <c r="C6" s="42" t="n"/>
-      <c r="D6" s="42" t="n"/>
+      <c r="B6" s="42" t="inlineStr">
+        <is>
+          <t>Kesme Sac</t>
+        </is>
+      </c>
+      <c r="C6" s="71" t="inlineStr">
+        <is>
+          <t>0.35 mm</t>
+        </is>
+      </c>
+      <c r="D6" s="71" t="inlineStr">
+        <is>
+          <t>407.02 kg</t>
+        </is>
+      </c>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
@@ -2376,8 +2393,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="42" t="n"/>
-      <c r="C7" s="42" t="n"/>
-      <c r="D7" s="42" t="n"/>
+      <c r="C7" s="71" t="n"/>
+      <c r="D7" s="71" t="n"/>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
     </row>
@@ -2386,8 +2403,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="42" t="n"/>
-      <c r="C8" s="42" t="n"/>
-      <c r="D8" s="42" t="n"/>
+      <c r="C8" s="71" t="n"/>
+      <c r="D8" s="71" t="n"/>
       <c r="E8" s="42" t="n"/>
       <c r="F8" s="42" t="n"/>
     </row>
@@ -2396,8 +2413,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="42" t="n"/>
-      <c r="C9" s="42" t="n"/>
-      <c r="D9" s="42" t="n"/>
+      <c r="C9" s="71" t="n"/>
+      <c r="D9" s="71" t="n"/>
       <c r="E9" s="42" t="n"/>
       <c r="F9" s="42" t="n"/>
     </row>
@@ -2406,8 +2423,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="42" t="n"/>
-      <c r="C10" s="42" t="n"/>
-      <c r="D10" s="42" t="n"/>
+      <c r="C10" s="71" t="n"/>
+      <c r="D10" s="71" t="n"/>
       <c r="E10" s="42" t="n"/>
       <c r="F10" s="42" t="n"/>
     </row>
@@ -2416,8 +2433,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="42" t="n"/>
-      <c r="C11" s="42" t="n"/>
-      <c r="D11" s="42" t="n"/>
+      <c r="C11" s="71" t="n"/>
+      <c r="D11" s="71" t="n"/>
       <c r="E11" s="42" t="n"/>
       <c r="F11" s="42" t="n"/>
     </row>
@@ -2426,8 +2443,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="42" t="n"/>
-      <c r="C12" s="42" t="n"/>
-      <c r="D12" s="42" t="n"/>
+      <c r="C12" s="71" t="n"/>
+      <c r="D12" s="71" t="n"/>
       <c r="E12" s="42" t="n"/>
       <c r="F12" s="42" t="n"/>
     </row>
@@ -2436,8 +2453,8 @@
         <v>11</v>
       </c>
       <c r="B13" s="42" t="n"/>
-      <c r="C13" s="42" t="n"/>
-      <c r="D13" s="42" t="n"/>
+      <c r="C13" s="71" t="n"/>
+      <c r="D13" s="71" t="n"/>
       <c r="E13" s="42" t="n"/>
       <c r="F13" s="42" t="n"/>
     </row>
@@ -2446,8 +2463,8 @@
         <v>12</v>
       </c>
       <c r="B14" s="42" t="n"/>
-      <c r="C14" s="42" t="n"/>
-      <c r="D14" s="42" t="n"/>
+      <c r="C14" s="71" t="n"/>
+      <c r="D14" s="71" t="n"/>
       <c r="E14" s="42" t="n"/>
       <c r="F14" s="42" t="n"/>
     </row>
@@ -2456,8 +2473,8 @@
         <v>13</v>
       </c>
       <c r="B15" s="42" t="n"/>
-      <c r="C15" s="42" t="n"/>
-      <c r="D15" s="42" t="n"/>
+      <c r="C15" s="71" t="n"/>
+      <c r="D15" s="71" t="n"/>
       <c r="E15" s="42" t="n"/>
       <c r="F15" s="42" t="n"/>
     </row>
@@ -2466,8 +2483,8 @@
         <v>14</v>
       </c>
       <c r="B16" s="42" t="n"/>
-      <c r="C16" s="42" t="n"/>
-      <c r="D16" s="42" t="n"/>
+      <c r="C16" s="71" t="n"/>
+      <c r="D16" s="71" t="n"/>
       <c r="E16" s="42" t="n"/>
       <c r="F16" s="42" t="n"/>
     </row>
@@ -2476,8 +2493,8 @@
         <v>15</v>
       </c>
       <c r="B17" s="42" t="n"/>
-      <c r="C17" s="42" t="n"/>
-      <c r="D17" s="42" t="n"/>
+      <c r="C17" s="71" t="n"/>
+      <c r="D17" s="71" t="n"/>
       <c r="E17" s="42" t="n"/>
       <c r="F17" s="42" t="n"/>
     </row>
@@ -2486,8 +2503,8 @@
         <v>16</v>
       </c>
       <c r="B18" s="42" t="n"/>
-      <c r="C18" s="42" t="n"/>
-      <c r="D18" s="42" t="n"/>
+      <c r="C18" s="71" t="n"/>
+      <c r="D18" s="71" t="n"/>
       <c r="E18" s="42" t="n"/>
       <c r="F18" s="42" t="n"/>
     </row>
@@ -2496,8 +2513,8 @@
         <v>17</v>
       </c>
       <c r="B19" s="42" t="n"/>
-      <c r="C19" s="42" t="n"/>
-      <c r="D19" s="42" t="n"/>
+      <c r="C19" s="71" t="n"/>
+      <c r="D19" s="71" t="n"/>
       <c r="E19" s="42" t="n"/>
       <c r="F19" s="42" t="n"/>
     </row>
@@ -2506,8 +2523,8 @@
         <v>18</v>
       </c>
       <c r="B20" s="42" t="n"/>
-      <c r="C20" s="42" t="n"/>
-      <c r="D20" s="42" t="n"/>
+      <c r="C20" s="71" t="n"/>
+      <c r="D20" s="71" t="n"/>
       <c r="E20" s="42" t="n"/>
       <c r="F20" s="42" t="n"/>
     </row>
@@ -2516,8 +2533,8 @@
         <v>19</v>
       </c>
       <c r="B21" s="42" t="n"/>
-      <c r="C21" s="42" t="n"/>
-      <c r="D21" s="42" t="n"/>
+      <c r="C21" s="71" t="n"/>
+      <c r="D21" s="71" t="n"/>
       <c r="E21" s="42" t="n"/>
       <c r="F21" s="42" t="n"/>
     </row>
@@ -2526,8 +2543,8 @@
         <v>20</v>
       </c>
       <c r="B22" s="42" t="n"/>
-      <c r="C22" s="42" t="n"/>
-      <c r="D22" s="42" t="n"/>
+      <c r="C22" s="71" t="n"/>
+      <c r="D22" s="71" t="n"/>
       <c r="E22" s="42" t="n"/>
       <c r="F22" s="42" t="n"/>
     </row>
@@ -2536,8 +2553,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="42" t="n"/>
-      <c r="C23" s="42" t="n"/>
-      <c r="D23" s="42" t="n"/>
+      <c r="C23" s="71" t="n"/>
+      <c r="D23" s="71" t="n"/>
       <c r="E23" s="42" t="n"/>
       <c r="F23" s="42" t="n"/>
     </row>
@@ -2546,8 +2563,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="42" t="n"/>
-      <c r="C24" s="42" t="n"/>
-      <c r="D24" s="42" t="n"/>
+      <c r="C24" s="71" t="n"/>
+      <c r="D24" s="71" t="n"/>
       <c r="E24" s="42" t="n"/>
       <c r="F24" s="42" t="n"/>
     </row>
@@ -2556,8 +2573,8 @@
         <v>23</v>
       </c>
       <c r="B25" s="42" t="n"/>
-      <c r="C25" s="42" t="n"/>
-      <c r="D25" s="42" t="n"/>
+      <c r="C25" s="71" t="n"/>
+      <c r="D25" s="71" t="n"/>
       <c r="E25" s="42" t="n"/>
       <c r="F25" s="42" t="n"/>
     </row>
@@ -2566,8 +2583,8 @@
         <v>24</v>
       </c>
       <c r="B26" s="42" t="n"/>
-      <c r="C26" s="42" t="n"/>
-      <c r="D26" s="42" t="n"/>
+      <c r="C26" s="71" t="n"/>
+      <c r="D26" s="71" t="n"/>
       <c r="E26" s="42" t="n"/>
       <c r="F26" s="42" t="n"/>
     </row>
@@ -2576,8 +2593,8 @@
         <v>25</v>
       </c>
       <c r="B27" s="42" t="n"/>
-      <c r="C27" s="42" t="n"/>
-      <c r="D27" s="42" t="n"/>
+      <c r="C27" s="71" t="n"/>
+      <c r="D27" s="71" t="n"/>
       <c r="E27" s="42" t="n"/>
       <c r="F27" s="42" t="n"/>
     </row>
@@ -2586,8 +2603,8 @@
         <v>26</v>
       </c>
       <c r="B28" s="42" t="n"/>
-      <c r="C28" s="42" t="n"/>
-      <c r="D28" s="42" t="n"/>
+      <c r="C28" s="71" t="n"/>
+      <c r="D28" s="71" t="n"/>
       <c r="E28" s="42" t="n"/>
       <c r="F28" s="42" t="n"/>
     </row>
@@ -2596,8 +2613,8 @@
         <v>27</v>
       </c>
       <c r="B29" s="42" t="n"/>
-      <c r="C29" s="42" t="n"/>
-      <c r="D29" s="42" t="n"/>
+      <c r="C29" s="71" t="n"/>
+      <c r="D29" s="71" t="n"/>
       <c r="E29" s="42" t="n"/>
       <c r="F29" s="42" t="n"/>
     </row>
@@ -2606,8 +2623,8 @@
         <v>28</v>
       </c>
       <c r="B30" s="42" t="n"/>
-      <c r="C30" s="42" t="n"/>
-      <c r="D30" s="42" t="n"/>
+      <c r="C30" s="71" t="n"/>
+      <c r="D30" s="71" t="n"/>
       <c r="E30" s="42" t="n"/>
       <c r="F30" s="42" t="n"/>
     </row>
@@ -2616,8 +2633,8 @@
         <v>29</v>
       </c>
       <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
+      <c r="C31" s="71" t="n"/>
+      <c r="D31" s="71" t="n"/>
       <c r="E31" s="42" t="n"/>
       <c r="F31" s="42" t="n"/>
     </row>
@@ -2626,8 +2643,8 @@
         <v>30</v>
       </c>
       <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
+      <c r="C32" s="71" t="n"/>
+      <c r="D32" s="71" t="n"/>
       <c r="E32" s="42" t="n"/>
       <c r="F32" s="42" t="n"/>
     </row>
@@ -2636,5 +2653,6 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="256" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/media/reports/izolasyon_trifaz.xlsx
+++ b/media/reports/izolasyon_trifaz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9348" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M_Listesi" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="M_Listesi" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Rapor Sayfası'!$A$1:$O$68</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Rapor Sayfası'!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt formatCode="0.000" numFmtId="164"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="165"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -554,223 +554,223 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="24" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="5" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="16" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -843,32 +843,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1019175" cy="1162050"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>13</col>
@@ -879,17 +854,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -904,17 +879,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPr descr="Picture" id="2" name="Image 2"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -929,17 +904,17 @@
     <ext cx="8839200" cy="5381625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPr descr="Picture" id="3" name="Image 3"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -951,20 +926,20 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="752475" cy="809625"/>
+    <ext cx="676275" cy="695325"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPr descr="Picture" id="4" name="Image 4"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -979,17 +954,17 @@
     <ext cx="752475" cy="809625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPr descr="Picture" id="5" name="Image 5"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1283,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1291,30 +1266,30 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.33203125" customWidth="1" min="1" max="1"/>
-    <col width="7.6640625" customWidth="1" style="12" min="2" max="2"/>
-    <col width="5.6640625" customWidth="1" style="12" min="3" max="3"/>
-    <col width="5.21875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="5.88671875" customWidth="1" style="12" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="12" min="6" max="6"/>
-    <col width="19.88671875" customWidth="1" style="12" min="7" max="7"/>
-    <col width="15.77734375" customWidth="1" style="12" min="8" max="8"/>
-    <col width="13.5546875" customWidth="1" style="12" min="9" max="9"/>
-    <col width="8.5546875" customWidth="1" style="12" min="10" max="10"/>
-    <col width="8.33203125" customWidth="1" style="12" min="11" max="11"/>
-    <col width="6.33203125" customWidth="1" style="12" min="12" max="12"/>
-    <col width="5.77734375" customWidth="1" style="12" min="13" max="13"/>
-    <col width="9" customWidth="1" style="12" min="14" max="14"/>
-    <col width="18.5546875" customWidth="1" style="12" min="15" max="15"/>
+    <col customWidth="1" max="1" min="1" width="13.33203125"/>
+    <col customWidth="1" max="2" min="2" style="12" width="7.6640625"/>
+    <col customWidth="1" max="3" min="3" style="12" width="5.6640625"/>
+    <col customWidth="1" max="4" min="4" style="12" width="5.21875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="5.88671875"/>
+    <col customWidth="1" max="6" min="6" style="12" width="8.88671875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="19.88671875"/>
+    <col customWidth="1" max="8" min="8" style="12" width="15.77734375"/>
+    <col customWidth="1" max="9" min="9" style="12" width="13.5546875"/>
+    <col customWidth="1" max="10" min="10" style="12" width="8.5546875"/>
+    <col customWidth="1" max="11" min="11" style="12" width="8.33203125"/>
+    <col customWidth="1" max="12" min="12" style="12" width="6.33203125"/>
+    <col customWidth="1" max="13" min="13" style="12" width="5.77734375"/>
+    <col customWidth="1" max="14" min="14" style="12" width="9"/>
+    <col customWidth="1" max="15" min="15" style="12" width="18.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="1" thickBot="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Trafo Tipi :</t>
@@ -1341,11 +1316,11 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="57" t="n">
-        <v>44321.48259048545</v>
+        <v>44322.55706163279</v>
       </c>
       <c r="O1" s="50" t="n"/>
     </row>
-    <row r="2" ht="16.2" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="16.2" r="2" thickBot="1">
       <c r="A2" s="58" t="inlineStr">
         <is>
           <t>Değerler</t>
@@ -1388,7 +1363,7 @@
       </c>
       <c r="H3" s="53" t="inlineStr">
         <is>
-          <t>8.908 kg</t>
+          <t>19.992 kg</t>
         </is>
       </c>
       <c r="I3" s="54" t="n"/>
@@ -1429,7 +1404,7 @@
       </c>
       <c r="H4" s="53" t="inlineStr">
         <is>
-          <t>14.429 kg</t>
+          <t>14.838 kg</t>
         </is>
       </c>
       <c r="I4" s="54" t="n"/>
@@ -1441,7 +1416,7 @@
       <c r="K4" s="76" t="n"/>
       <c r="L4" s="77" t="inlineStr">
         <is>
-          <t>827.0 x 390.0 x 508.0</t>
+          <t>833.0 x 390.0 x 508.0</t>
         </is>
       </c>
       <c r="O4" s="76" t="n"/>
@@ -1480,7 +1455,7 @@
       <c r="K5" s="76" t="n"/>
       <c r="L5" s="77" t="inlineStr">
         <is>
-          <t>AVK2.5 / 0.0 / 45.0 - 180 Kose</t>
+          <t xml:space="preserve"> / 0.0 / 0.0 - </t>
         </is>
       </c>
       <c r="O5" s="76" t="n"/>
@@ -1519,12 +1494,12 @@
       <c r="K6" s="76" t="n"/>
       <c r="L6" s="77" t="inlineStr">
         <is>
-          <t>407.02 kg(Kesme Sac)</t>
+          <t>411.65 kg(Kesme Sac)</t>
         </is>
       </c>
       <c r="O6" s="76" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="7" thickBot="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Frekans :</t>
@@ -1546,7 +1521,7 @@
       </c>
       <c r="H7" s="53" t="inlineStr">
         <is>
-          <t>Al:23.337 //  Cu:0.0kg</t>
+          <t>Al:34.83 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="54" t="n"/>
@@ -1557,10 +1532,10 @@
       <c r="N7" s="31" t="n"/>
       <c r="O7" s="33" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="8" thickBot="1">
       <c r="A8" s="1" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="9" thickBot="1">
       <c r="A9" s="48" t="inlineStr">
         <is>
           <t>Primer</t>
@@ -1594,7 +1569,7 @@
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>400.0 V ( 400.0V )</t>
+          <t>400.0 V ( 231.5789V )</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1644,7 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1695,7 +1670,7 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>70.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1721,7 +1696,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1745,7 +1720,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>24.993</v>
+        <v>44.87475</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1756,7 +1731,7 @@
         </is>
       </c>
       <c r="J17" s="21" t="n">
-        <v>29.68945</v>
+        <v>30.53095</v>
       </c>
       <c r="K17" s="21" t="n"/>
       <c r="L17" s="21" t="n"/>
@@ -1782,7 +1757,7 @@
       <c r="M18" s="25" t="n"/>
       <c r="O18" s="2" t="n"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="19">
       <c r="A19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
@@ -1794,7 +1769,7 @@
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>33 sp</t>
+          <t>57 sp</t>
         </is>
       </c>
       <c r="I19" s="81" t="inlineStr">
@@ -1812,7 +1787,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="20">
       <c r="A20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
@@ -1832,7 +1807,7 @@
       <c r="L20" s="26" t="n"/>
       <c r="M20" s="26" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="21">
       <c r="A21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
@@ -1840,7 +1815,7 @@
       </c>
       <c r="B21" s="83" t="inlineStr">
         <is>
-          <t>11.0x4.0</t>
+          <t>11.0x5.0</t>
         </is>
       </c>
       <c r="C21" s="24" t="n"/>
@@ -1860,14 +1835,14 @@
       <c r="L21" s="24" t="n"/>
       <c r="M21" s="24" t="n"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="22">
       <c r="A22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
       <c r="B22" s="83" t="n">
-        <v>2.9691684</v>
+        <v>6.663900375000001</v>
       </c>
       <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
@@ -1878,13 +1853,13 @@
         </is>
       </c>
       <c r="J22" s="83" t="n">
-        <v>4.809690900000001</v>
+        <v>4.946013899999999</v>
       </c>
       <c r="K22" s="26" t="n"/>
       <c r="L22" s="26" t="n"/>
       <c r="M22" s="26" t="n"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="23">
       <c r="A23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
@@ -1904,7 +1879,7 @@
       <c r="L23" s="24" t="n"/>
       <c r="M23" s="24" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="24">
       <c r="A24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
@@ -1924,7 +1899,7 @@
       <c r="L24" s="26" t="n"/>
       <c r="M24" s="26" t="n"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="25">
       <c r="A25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -1946,15 +1921,15 @@
       <c r="M25" s="24" t="n"/>
       <c r="O25" s="2" t="n"/>
     </row>
-    <row r="26" ht="15" customHeight="1"/>
-    <row r="27" ht="15" customHeight="1"/>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1" thickBot="1"/>
-    <row r="30" ht="15" customHeight="1" thickBot="1"/>
-    <row r="31" ht="15" customHeight="1" thickBot="1"/>
-    <row r="32" ht="15" customHeight="1" thickBot="1"/>
-    <row r="33" ht="15" customHeight="1" thickBot="1"/>
-    <row r="34" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="26"/>
+    <row customHeight="1" ht="15" r="27"/>
+    <row customHeight="1" ht="15" r="28"/>
+    <row customHeight="1" ht="15" r="29" thickBot="1"/>
+    <row customHeight="1" ht="15" r="30" thickBot="1"/>
+    <row customHeight="1" ht="15" r="31" thickBot="1"/>
+    <row customHeight="1" ht="15" r="32" thickBot="1"/>
+    <row customHeight="1" ht="15" r="33" thickBot="1"/>
+    <row customHeight="1" ht="15" r="34" thickBot="1">
       <c r="B34" s="34" t="inlineStr">
         <is>
           <t>IZOLASYON DEGERLERI</t>
@@ -1966,7 +1941,7 @@
       <c r="F34" s="35" t="n"/>
       <c r="G34" s="15" t="n"/>
     </row>
-    <row r="35" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="35" thickBot="1">
       <c r="B35" s="84" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
@@ -1986,7 +1961,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="36" thickBot="1">
       <c r="B36" s="85" t="n">
         <v>0.19</v>
       </c>
@@ -1998,11 +1973,11 @@
       </c>
       <c r="G36" s="19" t="inlineStr">
         <is>
-          <t>Ø : 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" thickBot="1">
+          <t>Yok</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="37" thickBot="1">
       <c r="B37" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
@@ -2022,7 +1997,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="38" thickBot="1">
       <c r="B38" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2042,7 +2017,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="39" thickBot="1">
       <c r="B39" s="84" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
@@ -2058,7 +2033,7 @@
       </c>
       <c r="G39" s="8" t="n"/>
     </row>
-    <row r="40" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="40" thickBot="1">
       <c r="B40" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2074,7 +2049,7 @@
       </c>
       <c r="G40" s="16" t="n"/>
     </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="41" thickBot="1">
       <c r="B41" s="34" t="inlineStr">
         <is>
           <t>NÜVE ÖLÇÜLERİ (mm)</t>
@@ -2086,7 +2061,7 @@
       <c r="F41" s="35" t="n"/>
       <c r="G41" s="35" t="n"/>
     </row>
-    <row r="42" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="42" thickBot="1">
       <c r="B42" s="7" t="inlineStr">
         <is>
           <t>a</t>
@@ -2185,7 +2160,7 @@
     <row r="46">
       <c r="B46" s="28" t="inlineStr">
         <is>
-          <t>827.0 mm</t>
+          <t>833.0 mm</t>
         </is>
       </c>
       <c r="C46" s="29" t="inlineStr">
@@ -2200,7 +2175,7 @@
       </c>
       <c r="E46" s="29" t="inlineStr">
         <is>
-          <t>707.0 mm</t>
+          <t>713.0 mm</t>
         </is>
       </c>
       <c r="F46" s="29" t="inlineStr">
@@ -2249,9 +2224,9 @@
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="A11:E11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" horizontalDpi="300" orientation="portrait" paperSize="9" scale="58" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2270,10 +2245,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="19.33203125" customWidth="1" style="25" min="3" max="3"/>
-    <col width="19.77734375" customWidth="1" style="25" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="4.44140625"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" style="25" width="19.33203125"/>
+    <col customWidth="1" max="4" min="4" style="25" width="19.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2314,16 +2289,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H01012112X04YSBT</t>
+          <t>H0103011X050PF</t>
         </is>
       </c>
       <c r="C3" s="71" t="inlineStr">
         <is>
-          <t>11.0x4.0</t>
+          <t>11.0x5.0</t>
         </is>
       </c>
       <c r="D3" s="71" t="n">
-        <v>2.9691684</v>
+        <v>6.663900375000001</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2334,7 +2309,7 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H0103012X050PF</t>
+          <t>H0101212X5KPAL</t>
         </is>
       </c>
       <c r="C4" s="71" t="inlineStr">
@@ -2343,7 +2318,7 @@
         </is>
       </c>
       <c r="D4" s="71" t="n">
-        <v>4.809690900000001</v>
+        <v>4.946013899999999</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
@@ -2354,7 +2329,7 @@
       </c>
       <c r="B5" s="42" t="inlineStr">
         <is>
-          <t>H0215010000TD</t>
+          <t>H0201001200TD</t>
         </is>
       </c>
       <c r="C5" s="71" t="inlineStr">
@@ -2382,7 +2357,7 @@
       </c>
       <c r="D6" s="71" t="inlineStr">
         <is>
-          <t>407.02 kg</t>
+          <t>411.65 kg</t>
         </is>
       </c>
       <c r="E6" s="42" t="n"/>
@@ -2652,7 +2627,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="256" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="256" verticalDpi="300"/>
 </worksheet>
 </file>